--- a/biology/Zoologie/Aceste_(animal)/Aceste_(animal).xlsx
+++ b/biology/Zoologie/Aceste_(animal)/Aceste_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aceste est un genre d'oursins abyssaux dits « irréguliers » de la famille des Schizasteridae. 
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur. 
-Ce genre se distingue au sein de sa famille par sa forme de cœur très fendu et ses deux ambulacres non pétalliformes[3].
-Il semble être apparu à l'Éocène[3], et demeure répandu dans tous les bassins océaniques tropicaux. 
+Ce genre se distingue au sein de sa famille par sa forme de cœur très fendu et ses deux ambulacres non pétalliformes.
+Il semble être apparu à l'Éocène, et demeure répandu dans tous les bassins océaniques tropicaux. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 avril 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 avril 2020) :
 Aceste bellidifera Thomson, 1877 -- Atlantique sud
 Aceste ovata A. Agassiz &amp; H.L. Clark, 1907 -- Indo-Pacifique
 Aceste weberi Koehler, 1914 -- Timor</t>
